--- a/templates/SpillTemplate.xlsx
+++ b/templates/SpillTemplate.xlsx
@@ -11,39 +11,39 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="area_mcts_centre" vbProcedure="false">Sheet1!$B$30</definedName>
-    <definedName function="false" hidden="false" name="call_sign" vbProcedure="false">Sheet1!$B$19</definedName>
-    <definedName function="false" hidden="false" name="ccg_duty_officer" vbProcedure="false">Sheet1!$B$25</definedName>
-    <definedName function="false" hidden="false" name="colour_odour" vbProcedure="false">Sheet1!$J$11</definedName>
-    <definedName function="false" hidden="false" name="coordinates" vbProcedure="false">Sheet1!$B$9</definedName>
-    <definedName function="false" hidden="false" name="dfo_public_affairs" vbProcedure="false">Sheet1!$B$31</definedName>
-    <definedName function="false" hidden="false" name="email_reporter" vbProcedure="false">Sheet1!$I$7</definedName>
-    <definedName function="false" hidden="false" name="location_description" vbProcedure="false">Sheet1!$E$9</definedName>
-    <definedName function="false" hidden="false" name="name_reporter" vbProcedure="false">Sheet1!$C$7</definedName>
-    <definedName function="false" hidden="false" name="origin" vbProcedure="false">Sheet1!$B$12</definedName>
-    <definedName function="false" hidden="false" name="owner_agent" vbProcedure="false">Sheet1!$B$22</definedName>
-    <definedName function="false" hidden="false" name="phone_reporter" vbProcedure="false">Sheet1!$F$7</definedName>
-    <definedName function="false" hidden="false" name="pollutant" vbProcedure="false">Sheet1!$B$10</definedName>
-    <definedName function="false" hidden="false" name="pollutant_details" vbProcedure="false">Sheet1!$E$10</definedName>
-    <definedName function="false" hidden="false" name="quantity" vbProcedure="false">Sheet1!$B$11</definedName>
-    <definedName function="false" hidden="false" name="quantity_units" vbProcedure="false">Sheet1!$G$11</definedName>
-    <definedName function="false" hidden="false" name="report_date" vbProcedure="false">Sheet1!$C$5</definedName>
-    <definedName function="false" hidden="false" name="report_name" vbProcedure="false">Sheet1!$C$4</definedName>
-    <definedName function="false" hidden="false" name="report_num" vbProcedure="false">Sheet1!$C$3</definedName>
-    <definedName function="false" hidden="false" name="report_timezone" vbProcedure="false">Sheet1!$G$5</definedName>
-    <definedName function="false" hidden="false" name="response_activated" vbProcedure="false">Sheet1!$B$16</definedName>
-    <definedName function="false" hidden="false" name="roc_officer" vbProcedure="false">Sheet1!$B$33</definedName>
-    <definedName function="false" hidden="false" name="sitation_additional_info" vbProcedure="false">Sheet1!$B$14</definedName>
-    <definedName function="false" hidden="false" name="spill_date" vbProcedure="false">Sheet1!$C$6</definedName>
-    <definedName function="false" hidden="false" name="spill_timezone" vbProcedure="false">Sheet1!$G$6</definedName>
-    <definedName function="false" hidden="false" name="tc_marine_safety" vbProcedure="false">Sheet1!$B$26</definedName>
-    <definedName function="false" hidden="false" name="update_text" vbProcedure="false">Sheet1!$B$34</definedName>
-    <definedName function="false" hidden="false" name="vancouver_hm" vbProcedure="false">Sheet1!$B$28</definedName>
-    <definedName function="false" hidden="false" name="vessel_additional_info" vbProcedure="false">Sheet1!$B$23</definedName>
-    <definedName function="false" hidden="false" name="vessel_length" vbProcedure="false">Sheet1!$B$20</definedName>
-    <definedName function="false" hidden="false" name="vessel_name" vbProcedure="false">Sheet1!$B$18</definedName>
-    <definedName function="false" hidden="false" name="vessel_type" vbProcedure="false">Sheet1!$B$21</definedName>
-    <definedName function="false" hidden="false" name="weather" vbProcedure="false">Sheet1!$B$13</definedName>
+    <definedName function="false" hidden="false" name="area_mcts_centre" vbProcedure="false">Sheet1!$B$31</definedName>
+    <definedName function="false" hidden="false" name="call_sign" vbProcedure="false">Sheet1!$B$20</definedName>
+    <definedName function="false" hidden="false" name="ccg_duty_officer" vbProcedure="false">Sheet1!$B$26</definedName>
+    <definedName function="false" hidden="false" name="colour_odour" vbProcedure="false">Sheet1!$J$12</definedName>
+    <definedName function="false" hidden="false" name="coordinates" vbProcedure="false">Sheet1!$B$10</definedName>
+    <definedName function="false" hidden="false" name="dfo_public_affairs" vbProcedure="false">Sheet1!$B$32</definedName>
+    <definedName function="false" hidden="false" name="email_reporter" vbProcedure="false">Sheet1!$I$8</definedName>
+    <definedName function="false" hidden="false" name="location_description" vbProcedure="false">Sheet1!$E$10</definedName>
+    <definedName function="false" hidden="false" name="name_reporter" vbProcedure="false">Sheet1!$C$8</definedName>
+    <definedName function="false" hidden="false" name="origin" vbProcedure="false">Sheet1!$B$13</definedName>
+    <definedName function="false" hidden="false" name="owner_agent" vbProcedure="false">Sheet1!$B$23</definedName>
+    <definedName function="false" hidden="false" name="phone_reporter" vbProcedure="false">Sheet1!$F$8</definedName>
+    <definedName function="false" hidden="false" name="pollutant" vbProcedure="false">Sheet1!$B$11</definedName>
+    <definedName function="false" hidden="false" name="pollutant_details" vbProcedure="false">Sheet1!$E$11</definedName>
+    <definedName function="false" hidden="false" name="quantity" vbProcedure="false">Sheet1!$B$12</definedName>
+    <definedName function="false" hidden="false" name="quantity_units" vbProcedure="false">Sheet1!$G$12</definedName>
+    <definedName function="false" hidden="false" name="report_date" vbProcedure="false">Sheet1!$C$6</definedName>
+    <definedName function="false" hidden="false" name="report_name" vbProcedure="false">Sheet1!$C$5</definedName>
+    <definedName function="false" hidden="false" name="report_num" vbProcedure="false">Sheet1!$C$4</definedName>
+    <definedName function="false" hidden="false" name="report_timezone" vbProcedure="false">Sheet1!$G$6</definedName>
+    <definedName function="false" hidden="false" name="response_activated" vbProcedure="false">Sheet1!$B$17</definedName>
+    <definedName function="false" hidden="false" name="roc_officer" vbProcedure="false">Sheet1!$B$34</definedName>
+    <definedName function="false" hidden="false" name="sitation_additional_info" vbProcedure="false">Sheet1!$B$15</definedName>
+    <definedName function="false" hidden="false" name="spill_date" vbProcedure="false">Sheet1!$C$7</definedName>
+    <definedName function="false" hidden="false" name="spill_timezone" vbProcedure="false">Sheet1!$G$7</definedName>
+    <definedName function="false" hidden="false" name="tc_marine_safety" vbProcedure="false">Sheet1!$B$27</definedName>
+    <definedName function="false" hidden="false" name="update_text" vbProcedure="false">Sheet1!$C$2</definedName>
+    <definedName function="false" hidden="false" name="vancouver_hm" vbProcedure="false">Sheet1!$B$29</definedName>
+    <definedName function="false" hidden="false" name="vessel_additional_info" vbProcedure="false">Sheet1!$B$24</definedName>
+    <definedName function="false" hidden="false" name="vessel_length" vbProcedure="false">Sheet1!$B$21</definedName>
+    <definedName function="false" hidden="false" name="vessel_name" vbProcedure="false">Sheet1!$B$19</definedName>
+    <definedName function="false" hidden="false" name="vessel_type" vbProcedure="false">Sheet1!$B$22</definedName>
+    <definedName function="false" hidden="false" name="weather" vbProcedure="false">Sheet1!$B$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,6 +60,9 @@
     <t xml:space="preserve">Pollution Report</t>
   </si>
   <si>
+    <t xml:space="preserve">UPDATE TEXT</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENERAL INFORMATION- POLLUTION REPORT </t>
   </si>
   <si>
@@ -154,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">ROC OFFICER:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE TEXT</t>
   </si>
   <si>
     <t xml:space="preserve">REGIONAL OPERATIONS CENTRE - WESTERN</t>
@@ -242,14 +242,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,14 +264,14 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
-      <top style="dotted"/>
+      <top/>
       <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
-      <top/>
+      <top style="dotted"/>
       <bottom style="dotted"/>
       <diagonal/>
     </border>
@@ -360,27 +360,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -392,11 +392,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -412,7 +412,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="12730680"/>
-          <a:ext cx="5193000" cy="683640"/>
+          <a:off x="360" y="12449520"/>
+          <a:ext cx="5193000" cy="683280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -551,10 +551,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,25 +572,25 @@
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -601,205 +601,205 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6"/>
@@ -812,229 +812,229 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="110.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="s">
@@ -1128,52 +1128,54 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
+  <mergeCells count="53">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:J10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B15:J15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B26:J27"/>
-    <mergeCell ref="B28:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B31:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B27:J28"/>
+    <mergeCell ref="B29:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J33"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:J36"/>
